--- a/MyMojioWebsite/src/com/mojio/xls/LeftHandPanel.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/LeftHandPanel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="779" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="779" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="306">
   <si>
     <t>TCID</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>NavigateDashboard</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>NavigateLocateVehicle</t>
@@ -1221,8 +1218,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E25" activeCellId="0" pane="topLeft" sqref="E25"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G20" activeCellId="0" pane="topLeft" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1259,201 +1256,201 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
@@ -1462,38 +1459,38 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1527,7 +1524,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1535,7 +1532,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1572,7 +1569,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1580,7 +1577,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1617,7 +1614,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1625,7 +1622,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="28.35" outlineLevel="0" r="2">
       <c r="A2" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1660,7 +1657,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1668,7 +1665,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1705,7 +1702,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1713,7 +1710,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1750,7 +1747,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1758,7 +1755,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1795,7 +1792,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1803,7 +1800,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1840,7 +1837,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1848,7 +1845,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1885,7 +1882,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1893,7 +1890,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1929,7 +1926,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1937,7 +1934,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1961,7 +1958,7 @@
   </sheetPr>
   <dimension ref="1:149"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="E97" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="O107" activeCellId="0" pane="topLeft" sqref="O107"/>
     </sheetView>
   </sheetViews>
@@ -1983,22 +1980,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
@@ -2006,17 +2003,17 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -2025,17 +2022,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -2044,17 +2041,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -2063,19 +2060,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -2084,19 +2081,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -2105,16 +2102,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -2124,17 +2121,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -2143,17 +2140,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -2162,16 +2159,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2181,16 +2178,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -2200,70 +2197,70 @@
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2271,116 +2268,116 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="G18" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21" s="11">
       <c r="A21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2590,628 +2587,628 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G28" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G29" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30">
       <c r="A30" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
       <c r="A31" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
       <c r="A32" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
       <c r="A33" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G33" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
       <c r="A34" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
       <c r="A35" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36">
       <c r="A36" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="A37" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="A38" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G38" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39">
       <c r="A39" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G39" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="40">
       <c r="A40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
       <c r="A41" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="42">
       <c r="A42" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="43">
       <c r="A43" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G43" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="44">
       <c r="A44" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G44" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="45">
       <c r="A45" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="46">
       <c r="A46" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="47">
       <c r="A47" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="48">
       <c r="A48" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G48" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="49">
       <c r="A49" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G49" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="50">
       <c r="A50" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="51">
       <c r="A51" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="52">
       <c r="A52" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="53">
       <c r="A53" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G53" s="7"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="54" s="12">
       <c r="A54" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C54" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="0"/>
@@ -3585,19 +3582,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="55" s="12">
       <c r="A55" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -3972,19 +3969,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="56" s="12">
       <c r="A56" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -4359,19 +4356,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="57" s="12">
       <c r="A57" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>136</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -4746,20 +4743,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="58" s="12">
       <c r="A58" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="0"/>
@@ -5133,20 +5130,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="59" s="13">
       <c r="A59" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="0"/>
@@ -5520,19 +5517,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="60" s="13">
       <c r="A60" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -5907,19 +5904,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="61" s="13">
       <c r="A61" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -6294,19 +6291,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="62" s="13">
       <c r="A62" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -6681,20 +6678,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="63" s="13">
       <c r="A63" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="0"/>
@@ -7068,20 +7065,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="64" s="14">
       <c r="A64" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C64" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="0"/>
@@ -7455,19 +7452,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="65" s="14">
       <c r="A65" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -7842,19 +7839,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="66" s="14">
       <c r="A66" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C66" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
@@ -8229,20 +8226,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="67" s="14">
       <c r="A67" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="0"/>
@@ -8616,20 +8613,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="68" s="12">
       <c r="A68" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C68" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="0"/>
@@ -9003,19 +9000,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="69" s="12">
       <c r="A69" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C69" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
@@ -9390,20 +9387,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="70" s="12">
       <c r="A70" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="0"/>
@@ -9777,20 +9774,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="71" s="13">
       <c r="A71" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="0"/>
@@ -10164,19 +10161,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="72" s="13">
       <c r="A72" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -10551,19 +10548,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="73" s="13">
       <c r="A73" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -10938,20 +10935,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="74" s="13">
       <c r="A74" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="0"/>
@@ -11325,20 +11322,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="75" s="14">
       <c r="A75" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="0"/>
@@ -11712,19 +11709,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="76" s="14">
       <c r="A76" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C76" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
@@ -12099,19 +12096,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="77" s="14">
       <c r="A77" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -12486,20 +12483,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="78" s="14">
       <c r="A78" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="0"/>
@@ -12873,20 +12870,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="79" s="12">
       <c r="A79" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C79" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="0"/>
@@ -13260,19 +13257,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="80" s="12">
       <c r="A80" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C80" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="E80" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -13647,19 +13644,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="81" s="12">
       <c r="A81" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -14034,19 +14031,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="82" s="12">
       <c r="A82" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C82" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -14421,19 +14418,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="83" s="12">
       <c r="A83" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C83" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -14808,20 +14805,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="84" s="12">
       <c r="A84" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="0"/>
@@ -15195,20 +15192,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="85" s="13">
       <c r="A85" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="0"/>
@@ -15582,19 +15579,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="86" s="13">
       <c r="A86" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="E86" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -15969,19 +15966,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="87" s="13">
       <c r="A87" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -16356,19 +16353,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="88" s="13">
       <c r="A88" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -16743,19 +16740,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="89" s="13">
       <c r="A89" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -17130,20 +17127,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="90" s="13">
       <c r="A90" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="0"/>
@@ -17517,1122 +17514,1122 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="91">
       <c r="A91" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C91" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G91" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="92">
       <c r="A92" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C92" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="E92" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="93">
       <c r="A93" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="94">
       <c r="A94" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C94" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E94" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="95">
       <c r="A95" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C95" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="96">
       <c r="A96" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G96" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="97">
       <c r="A97" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G97" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="98">
       <c r="A98" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="E98" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="99">
       <c r="A99" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="100">
       <c r="A100" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="101">
       <c r="A101" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="102">
       <c r="A102" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G102" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="103">
       <c r="A103" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C103" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G103" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="104">
       <c r="A104" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C104" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="E104" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="105">
       <c r="A105" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="106">
       <c r="A106" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C106" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E106" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="107">
       <c r="A107" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C107" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="108">
       <c r="A108" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G108" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="109">
       <c r="A109" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C109" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G109" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="110">
       <c r="A110" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C110" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D110" s="9" t="s">
-        <v>167</v>
-      </c>
       <c r="E110" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="111">
       <c r="A111" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="112">
       <c r="A112" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C112" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E112" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="113">
       <c r="A113" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C113" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="114">
       <c r="A114" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G114" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="115">
       <c r="A115" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G115" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="116">
       <c r="A116" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C116" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="E116" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="117">
       <c r="A117" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="118">
       <c r="A118" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C118" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E118" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="119">
       <c r="A119" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="120">
       <c r="A120" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G120" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="121">
       <c r="A121" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C121" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D121" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G121" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="122">
       <c r="A122" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C122" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D122" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="E122" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="123">
       <c r="A123" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="124">
       <c r="A124" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C124" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E124" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="125">
       <c r="A125" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C125" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="126">
       <c r="A126" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G126" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="127">
       <c r="A127" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C127" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D127" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G127" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="128">
       <c r="A128" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C128" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D128" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D128" s="9" t="s">
-        <v>167</v>
-      </c>
       <c r="E128" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="129">
       <c r="A129" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="130">
       <c r="A130" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C130" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E130" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>221</v>
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="131">
       <c r="A131" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C131" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="132">
       <c r="A132" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G132" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="133">
       <c r="A133" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C133" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G133" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="134">
       <c r="A134" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C134" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="E134" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="135">
       <c r="A135" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="136">
       <c r="A136" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C136" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E136" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="137">
       <c r="A137" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C137" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="138">
       <c r="A138" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G138" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="139">
       <c r="A139" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C139" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D139" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G139" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="140">
       <c r="A140" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C140" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D140" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D140" s="9" t="s">
-        <v>167</v>
-      </c>
       <c r="E140" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="141">
       <c r="A141" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C141" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E141" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="142">
       <c r="A142" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C142" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>235</v>
       </c>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="143">
       <c r="A143" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G143" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="144">
       <c r="A144" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C144" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D144" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G144" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="145">
       <c r="A145" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C145" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D145" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D145" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="E145" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="146">
       <c r="A146" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C146" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E146" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="147">
       <c r="A147" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C147" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="148">
       <c r="A148" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G148" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="149">
       <c r="A149" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C149" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D149" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G149" s="7"/>
     </row>
@@ -18667,7 +18664,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -18675,7 +18672,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -18712,7 +18709,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -18720,7 +18717,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -18756,7 +18753,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -18764,7 +18761,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -18800,7 +18797,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -18808,7 +18805,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -18845,7 +18842,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -18853,7 +18850,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -18890,7 +18887,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -18898,7 +18895,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -18935,7 +18932,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -18943,7 +18940,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -18980,7 +18977,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -18988,7 +18985,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19025,7 +19022,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19033,7 +19030,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19069,7 +19066,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19077,7 +19074,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19116,16 +19113,16 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>249</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>250</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -19133,16 +19130,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>253</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>254</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -19179,7 +19176,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19187,7 +19184,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19224,7 +19221,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19232,7 +19229,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19269,7 +19266,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19277,7 +19274,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19314,7 +19311,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19322,7 +19319,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19359,7 +19356,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19367,7 +19364,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19404,7 +19401,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19412,7 +19409,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19449,7 +19446,7 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19457,7 +19454,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>

--- a/MyMojioWebsite/src/com/mojio/xls/LeftHandPanel.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/LeftHandPanel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="779" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="779" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" state="visible" r:id="rId2"/>
@@ -781,7 +781,7 @@
     <t>Close the browser</t>
   </si>
   <si>
-    <t>closeBroswer</t>
+    <t>closebrowser</t>
   </si>
   <si>
     <t>Sign_In_Page</t>
@@ -1218,8 +1218,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G20" activeCellId="0" pane="topLeft" sqref="G20"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G20" activeCellId="1" pane="topLeft" sqref="D149 G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1512,7 +1512,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+      <selection activeCell="B2" activeCellId="1" pane="topLeft" sqref="D149 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1557,7 +1557,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="D149 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1602,7 +1602,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A14" activeCellId="0" pane="topLeft" sqref="A14"/>
+      <selection activeCell="A14" activeCellId="1" pane="topLeft" sqref="D149 A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1647,7 +1647,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A11" activeCellId="0" pane="topLeft" sqref="A11"/>
+      <selection activeCell="A11" activeCellId="1" pane="topLeft" sqref="D149 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1690,7 +1690,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="D149 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1735,7 +1735,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A11" activeCellId="0" pane="topLeft" sqref="A11"/>
+      <selection activeCell="A11" activeCellId="1" pane="topLeft" sqref="D149 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1780,7 +1780,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A8" activeCellId="0" pane="topLeft" sqref="A8"/>
+      <selection activeCell="A8" activeCellId="1" pane="topLeft" sqref="D149 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1825,7 +1825,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
+      <selection activeCell="A6" activeCellId="1" pane="topLeft" sqref="D149 A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1870,7 +1870,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I46" activeCellId="0" pane="topLeft" sqref="I46"/>
+      <selection activeCell="I46" activeCellId="1" pane="topLeft" sqref="D149 I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A10" activeCellId="0" pane="topLeft" sqref="A10"/>
+      <selection activeCell="A10" activeCellId="1" pane="topLeft" sqref="D149 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1958,8 +1958,8 @@
   </sheetPr>
   <dimension ref="1:149"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O107" activeCellId="0" pane="topLeft" sqref="O107"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A119" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D149" activeCellId="0" pane="topLeft" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18652,7 +18652,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="A12"/>
+      <selection activeCell="A12" activeCellId="1" pane="topLeft" sqref="D149 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -18697,7 +18697,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="D149 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -18742,7 +18742,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="A12"/>
+      <selection activeCell="A12" activeCellId="1" pane="topLeft" sqref="D149 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -18786,7 +18786,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="A12"/>
+      <selection activeCell="A12" activeCellId="1" pane="topLeft" sqref="D149 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -18830,7 +18830,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="D149 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -18875,7 +18875,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C44" activeCellId="0" pane="topLeft" sqref="C44"/>
+      <selection activeCell="C44" activeCellId="1" pane="topLeft" sqref="D149 C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -18920,7 +18920,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
+      <selection activeCell="A4" activeCellId="1" pane="topLeft" sqref="D149 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -18965,7 +18965,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="D149 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -19010,7 +19010,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="D149 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -19055,7 +19055,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B15" activeCellId="0" pane="topLeft" sqref="B15"/>
+      <selection activeCell="B15" activeCellId="1" pane="topLeft" sqref="D149 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -19099,7 +19099,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D7" activeCellId="0" pane="topLeft" sqref="D7"/>
+      <selection activeCell="D7" activeCellId="1" pane="topLeft" sqref="D149 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19164,7 +19164,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="D149 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -19209,7 +19209,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="D149 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19254,7 +19254,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="D149 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19299,7 +19299,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A39" activeCellId="0" pane="topLeft" sqref="A39"/>
+      <selection activeCell="A39" activeCellId="1" pane="topLeft" sqref="D149 A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19344,7 +19344,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="D149 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19389,7 +19389,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
+      <selection activeCell="A4" activeCellId="1" pane="topLeft" sqref="D149 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19434,7 +19434,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="L40" activeCellId="0" pane="topLeft" sqref="L40"/>
+      <selection activeCell="L40" activeCellId="1" pane="topLeft" sqref="D149 L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/MyMojioWebsite/src/com/mojio/xls/LeftHandPanel.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/LeftHandPanel.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="309">
   <si>
     <t>TCID</t>
   </si>
@@ -64,6 +64,9 @@
     <t>NavigateDashboard</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>NavigateLocateVehicle</t>
   </si>
   <si>
@@ -523,6 +526,15 @@
     <t>col|Send_Feedback_Page</t>
   </si>
   <si>
+    <t>Scroll to bottom of a section</t>
+  </si>
+  <si>
+    <t>scrollPageSectionBottom</t>
+  </si>
+  <si>
+    <t>deviceManagementId</t>
+  </si>
+  <si>
     <t>Click on Admin Dashboard</t>
   </si>
   <si>
@@ -541,15 +553,6 @@
     <t>col|Admin_Dashboard_Page</t>
   </si>
   <si>
-    <t>Scroll to bottom of a section</t>
-  </si>
-  <si>
-    <t>scrollPageSectionBottom</t>
-  </si>
-  <si>
-    <t>deviceManagementId</t>
-  </si>
-  <si>
     <t>Click on Device Management</t>
   </si>
   <si>
@@ -962,6 +965,12 @@
   </si>
   <si>
     <t>Administrative Search</t>
+  </si>
+  <si>
+    <t>Result1</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -969,7 +978,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -995,7 +1004,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,6 +1039,16 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF950E"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -1074,7 +1093,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1139,6 +1158,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -1219,15 +1239,15 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G20" activeCellId="1" pane="topLeft" sqref="D149 G20"/>
+      <selection activeCell="A38" activeCellId="0" pane="topLeft" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.6734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="35.7091836734694" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="25.4234693877551" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="25.2908163265306" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -1256,120 +1276,120 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -1378,7 +1398,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
@@ -1387,110 +1407,110 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1512,19 +1532,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="1" pane="topLeft" sqref="D149 B2"/>
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.6734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="30.9132653061224" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="21.3622448979592" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1532,7 +1552,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1557,19 +1577,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="D149 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.6734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="27.2857142857143" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="18.4234693877551" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1577,7 +1597,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1602,19 +1622,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A14" activeCellId="1" pane="topLeft" sqref="D149 A14"/>
+      <selection activeCell="A14" activeCellId="0" pane="topLeft" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="22.0408163265306" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="15.9897959183673" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1622,7 +1642,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="28.35" outlineLevel="0" r="2">
       <c r="A2" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1647,17 +1667,17 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A11" activeCellId="1" pane="topLeft" sqref="D149 A11"/>
+      <selection activeCell="A11" activeCellId="0" pane="topLeft" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1665,7 +1685,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1690,19 +1710,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="D149 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.6122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="26.6122448979592" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="19.2142857142857" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1710,7 +1730,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1735,19 +1755,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A11" activeCellId="1" pane="topLeft" sqref="D149 A11"/>
+      <selection activeCell="A11" activeCellId="0" pane="topLeft" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.6122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="26.6122448979592" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="19.3469387755102" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1755,7 +1775,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1780,19 +1800,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A8" activeCellId="1" pane="topLeft" sqref="D149 A8"/>
+      <selection activeCell="A8" activeCellId="0" pane="topLeft" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.0102040816326"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="34.0102040816326" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="21.3622448979592" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1800,7 +1820,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1825,19 +1845,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="1" pane="topLeft" sqref="D149 A6"/>
+      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.6122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="26.6122448979592" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="15.0459183673469" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1845,7 +1865,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1870,19 +1890,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I46" activeCellId="1" pane="topLeft" sqref="D149 I46"/>
+      <selection activeCell="I46" activeCellId="0" pane="topLeft" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="28.2244897959184" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="19.6173469387755" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1890,7 +1910,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1915,18 +1935,18 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A10" activeCellId="1" pane="topLeft" sqref="D149 A10"/>
+      <selection activeCell="A10" activeCellId="0" pane="topLeft" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="17.1989795918367" collapsed="true"/>
+    <col min="2" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -1934,7 +1954,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1956,23 +1976,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:149"/>
+  <dimension ref="1:150"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A119" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D149" activeCellId="0" pane="topLeft" sqref="D149"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H46" activeCellId="0" pane="topLeft" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.4183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.0459183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.51530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.6734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="32.6581632653061" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="7.4234693877551" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="36.4183673469388" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="29.5714285714286" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="31.9948979591837" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="30.1020408163265" collapsed="true"/>
+    <col min="7" max="7" hidden="false" style="0" width="15.0459183673469" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" hidden="false" style="0" width="7.51171875" collapsed="true"/>
+    <col min="9" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -1980,22 +2000,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H1" t="s" s="16">
+        <v>307</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
@@ -2003,154 +2026,175 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="4"/>
+      <c r="H2" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="4"/>
+      <c r="H3" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="4"/>
+      <c r="H4" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="4"/>
+      <c r="H5" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" s="4"/>
+      <c r="H6" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
+      <c r="H7" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" s="4"/>
+      <c r="H8" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -2159,16 +2203,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2178,16 +2222,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -2197,70 +2241,70 @@
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2268,116 +2312,116 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21" s="11">
       <c r="A21" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2502,7 +2546,7 @@
       <c r="DV21" s="0"/>
       <c r="DW21" s="0"/>
       <c r="DX21" s="0"/>
-      <c r="DY21" s="0"/>
+      <c r="AJG21" s="0"/>
       <c r="AJH21" s="0"/>
       <c r="AJI21" s="0"/>
       <c r="AJJ21" s="0"/>
@@ -2587,628 +2631,628 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G24" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G28" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G29" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30">
       <c r="A30" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
       <c r="A31" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
       <c r="A32" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
       <c r="A33" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G33" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
       <c r="A34" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G34" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
       <c r="A35" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36">
       <c r="A36" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="A37" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="A38" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G38" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39">
       <c r="A39" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G39" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="40">
       <c r="A40" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
       <c r="A41" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="42">
       <c r="A42" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="43">
       <c r="A43" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G43" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="44">
       <c r="A44" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G44" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="45">
       <c r="A45" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="46">
       <c r="A46" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="47">
       <c r="A47" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="48">
       <c r="A48" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G48" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="49">
       <c r="A49" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G49" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="50">
       <c r="A50" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="51">
       <c r="A51" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="52">
       <c r="A52" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="53">
       <c r="A53" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G53" s="7"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="54" s="12">
       <c r="A54" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="0"/>
@@ -3547,7 +3591,7 @@
       <c r="MC54" s="0"/>
       <c r="MD54" s="0"/>
       <c r="ME54" s="0"/>
-      <c r="MF54" s="0"/>
+      <c r="ALE54" s="0"/>
       <c r="ALF54" s="0"/>
       <c r="ALG54" s="0"/>
       <c r="ALH54" s="0"/>
@@ -3582,19 +3626,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="55" s="12">
       <c r="A55" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -3934,7 +3978,7 @@
       <c r="MC55" s="0"/>
       <c r="MD55" s="0"/>
       <c r="ME55" s="0"/>
-      <c r="MF55" s="0"/>
+      <c r="ALE55" s="0"/>
       <c r="ALF55" s="0"/>
       <c r="ALG55" s="0"/>
       <c r="ALH55" s="0"/>
@@ -3969,19 +4013,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="56" s="12">
       <c r="A56" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -4321,7 +4365,7 @@
       <c r="MC56" s="0"/>
       <c r="MD56" s="0"/>
       <c r="ME56" s="0"/>
-      <c r="MF56" s="0"/>
+      <c r="ALE56" s="0"/>
       <c r="ALF56" s="0"/>
       <c r="ALG56" s="0"/>
       <c r="ALH56" s="0"/>
@@ -4356,19 +4400,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="57" s="12">
       <c r="A57" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -4708,7 +4752,7 @@
       <c r="MC57" s="0"/>
       <c r="MD57" s="0"/>
       <c r="ME57" s="0"/>
-      <c r="MF57" s="0"/>
+      <c r="ALE57" s="0"/>
       <c r="ALF57" s="0"/>
       <c r="ALG57" s="0"/>
       <c r="ALH57" s="0"/>
@@ -4743,20 +4787,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="58" s="12">
       <c r="A58" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="0"/>
@@ -5095,7 +5139,7 @@
       <c r="MC58" s="0"/>
       <c r="MD58" s="0"/>
       <c r="ME58" s="0"/>
-      <c r="MF58" s="0"/>
+      <c r="ALE58" s="0"/>
       <c r="ALF58" s="0"/>
       <c r="ALG58" s="0"/>
       <c r="ALH58" s="0"/>
@@ -5130,20 +5174,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="59" s="13">
       <c r="A59" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="0"/>
@@ -5482,7 +5526,7 @@
       <c r="MC59" s="0"/>
       <c r="MD59" s="0"/>
       <c r="ME59" s="0"/>
-      <c r="MF59" s="0"/>
+      <c r="ALE59" s="0"/>
       <c r="ALF59" s="0"/>
       <c r="ALG59" s="0"/>
       <c r="ALH59" s="0"/>
@@ -5517,19 +5561,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="60" s="13">
       <c r="A60" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -5869,7 +5913,7 @@
       <c r="MC60" s="0"/>
       <c r="MD60" s="0"/>
       <c r="ME60" s="0"/>
-      <c r="MF60" s="0"/>
+      <c r="ALE60" s="0"/>
       <c r="ALF60" s="0"/>
       <c r="ALG60" s="0"/>
       <c r="ALH60" s="0"/>
@@ -5904,19 +5948,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="61" s="13">
       <c r="A61" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -6256,7 +6300,7 @@
       <c r="MC61" s="0"/>
       <c r="MD61" s="0"/>
       <c r="ME61" s="0"/>
-      <c r="MF61" s="0"/>
+      <c r="ALE61" s="0"/>
       <c r="ALF61" s="0"/>
       <c r="ALG61" s="0"/>
       <c r="ALH61" s="0"/>
@@ -6291,19 +6335,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="62" s="13">
       <c r="A62" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -6643,7 +6687,7 @@
       <c r="MC62" s="0"/>
       <c r="MD62" s="0"/>
       <c r="ME62" s="0"/>
-      <c r="MF62" s="0"/>
+      <c r="ALE62" s="0"/>
       <c r="ALF62" s="0"/>
       <c r="ALG62" s="0"/>
       <c r="ALH62" s="0"/>
@@ -6678,20 +6722,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="63" s="13">
       <c r="A63" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="0"/>
@@ -7030,7 +7074,7 @@
       <c r="MC63" s="0"/>
       <c r="MD63" s="0"/>
       <c r="ME63" s="0"/>
-      <c r="MF63" s="0"/>
+      <c r="ALE63" s="0"/>
       <c r="ALF63" s="0"/>
       <c r="ALG63" s="0"/>
       <c r="ALH63" s="0"/>
@@ -7065,20 +7109,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="64" s="14">
       <c r="A64" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="0"/>
@@ -7417,7 +7461,7 @@
       <c r="MC64" s="0"/>
       <c r="MD64" s="0"/>
       <c r="ME64" s="0"/>
-      <c r="MF64" s="0"/>
+      <c r="ALE64" s="0"/>
       <c r="ALF64" s="0"/>
       <c r="ALG64" s="0"/>
       <c r="ALH64" s="0"/>
@@ -7452,19 +7496,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="65" s="14">
       <c r="A65" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -7804,7 +7848,7 @@
       <c r="MC65" s="0"/>
       <c r="MD65" s="0"/>
       <c r="ME65" s="0"/>
-      <c r="MF65" s="0"/>
+      <c r="ALE65" s="0"/>
       <c r="ALF65" s="0"/>
       <c r="ALG65" s="0"/>
       <c r="ALH65" s="0"/>
@@ -7839,19 +7883,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="66" s="14">
       <c r="A66" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
@@ -8191,7 +8235,7 @@
       <c r="MC66" s="0"/>
       <c r="MD66" s="0"/>
       <c r="ME66" s="0"/>
-      <c r="MF66" s="0"/>
+      <c r="ALE66" s="0"/>
       <c r="ALF66" s="0"/>
       <c r="ALG66" s="0"/>
       <c r="ALH66" s="0"/>
@@ -8226,20 +8270,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="67" s="14">
       <c r="A67" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="0"/>
@@ -8578,7 +8622,7 @@
       <c r="MC67" s="0"/>
       <c r="MD67" s="0"/>
       <c r="ME67" s="0"/>
-      <c r="MF67" s="0"/>
+      <c r="ALE67" s="0"/>
       <c r="ALF67" s="0"/>
       <c r="ALG67" s="0"/>
       <c r="ALH67" s="0"/>
@@ -8613,20 +8657,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="68" s="12">
       <c r="A68" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="0"/>
@@ -8965,7 +9009,7 @@
       <c r="MC68" s="0"/>
       <c r="MD68" s="0"/>
       <c r="ME68" s="0"/>
-      <c r="MF68" s="0"/>
+      <c r="ALE68" s="0"/>
       <c r="ALF68" s="0"/>
       <c r="ALG68" s="0"/>
       <c r="ALH68" s="0"/>
@@ -9000,19 +9044,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="69" s="12">
       <c r="A69" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
@@ -9352,7 +9396,7 @@
       <c r="MC69" s="0"/>
       <c r="MD69" s="0"/>
       <c r="ME69" s="0"/>
-      <c r="MF69" s="0"/>
+      <c r="ALE69" s="0"/>
       <c r="ALF69" s="0"/>
       <c r="ALG69" s="0"/>
       <c r="ALH69" s="0"/>
@@ -9387,20 +9431,20 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="70" s="12">
       <c r="A70" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="0"/>
@@ -9739,7 +9783,7 @@
       <c r="MC70" s="0"/>
       <c r="MD70" s="0"/>
       <c r="ME70" s="0"/>
-      <c r="MF70" s="0"/>
+      <c r="ALE70" s="0"/>
       <c r="ALF70" s="0"/>
       <c r="ALG70" s="0"/>
       <c r="ALH70" s="0"/>
@@ -9774,23 +9818,25 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="71" s="13">
       <c r="A71" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G71" s="4"/>
-      <c r="H71" s="0"/>
+      <c r="H71" s="0" t="s">
+        <v>308</v>
+      </c>
       <c r="I71" s="0"/>
       <c r="J71" s="0"/>
       <c r="K71" s="0"/>
@@ -10126,7 +10172,7 @@
       <c r="MC71" s="0"/>
       <c r="MD71" s="0"/>
       <c r="ME71" s="0"/>
-      <c r="MF71" s="0"/>
+      <c r="ALE71" s="0"/>
       <c r="ALF71" s="0"/>
       <c r="ALG71" s="0"/>
       <c r="ALH71" s="0"/>
@@ -10161,23 +10207,25 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="72" s="13">
       <c r="A72" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="0"/>
+      <c r="H72" s="0" t="s">
+        <v>308</v>
+      </c>
       <c r="I72" s="0"/>
       <c r="J72" s="0"/>
       <c r="K72" s="0"/>
@@ -10513,7 +10561,7 @@
       <c r="MC72" s="0"/>
       <c r="MD72" s="0"/>
       <c r="ME72" s="0"/>
-      <c r="MF72" s="0"/>
+      <c r="ALE72" s="0"/>
       <c r="ALF72" s="0"/>
       <c r="ALG72" s="0"/>
       <c r="ALH72" s="0"/>
@@ -10548,23 +10596,25 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="73" s="13">
       <c r="A73" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="0"/>
+      <c r="H73" s="0" t="s">
+        <v>308</v>
+      </c>
       <c r="I73" s="0"/>
       <c r="J73" s="0"/>
       <c r="K73" s="0"/>
@@ -10900,7 +10950,7 @@
       <c r="MC73" s="0"/>
       <c r="MD73" s="0"/>
       <c r="ME73" s="0"/>
-      <c r="MF73" s="0"/>
+      <c r="ALE73" s="0"/>
       <c r="ALF73" s="0"/>
       <c r="ALG73" s="0"/>
       <c r="ALH73" s="0"/>
@@ -10935,23 +10985,25 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="74" s="13">
       <c r="A74" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G74" s="4"/>
-      <c r="H74" s="0"/>
+      <c r="H74" s="0" t="s">
+        <v>308</v>
+      </c>
       <c r="I74" s="0"/>
       <c r="J74" s="0"/>
       <c r="K74" s="0"/>
@@ -11287,7 +11339,7 @@
       <c r="MC74" s="0"/>
       <c r="MD74" s="0"/>
       <c r="ME74" s="0"/>
-      <c r="MF74" s="0"/>
+      <c r="ALE74" s="0"/>
       <c r="ALF74" s="0"/>
       <c r="ALG74" s="0"/>
       <c r="ALH74" s="0"/>
@@ -11322,23 +11374,25 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="75" s="14">
       <c r="A75" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G75" s="7"/>
-      <c r="H75" s="0"/>
+      <c r="H75" s="0" t="s">
+        <v>308</v>
+      </c>
       <c r="I75" s="0"/>
       <c r="J75" s="0"/>
       <c r="K75" s="0"/>
@@ -11674,7 +11728,7 @@
       <c r="MC75" s="0"/>
       <c r="MD75" s="0"/>
       <c r="ME75" s="0"/>
-      <c r="MF75" s="0"/>
+      <c r="ALE75" s="0"/>
       <c r="ALF75" s="0"/>
       <c r="ALG75" s="0"/>
       <c r="ALH75" s="0"/>
@@ -11709,23 +11763,25 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="76" s="14">
       <c r="A76" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-      <c r="H76" s="0"/>
+      <c r="H76" s="0" t="s">
+        <v>308</v>
+      </c>
       <c r="I76" s="0"/>
       <c r="J76" s="0"/>
       <c r="K76" s="0"/>
@@ -12061,7 +12117,7 @@
       <c r="MC76" s="0"/>
       <c r="MD76" s="0"/>
       <c r="ME76" s="0"/>
-      <c r="MF76" s="0"/>
+      <c r="ALE76" s="0"/>
       <c r="ALF76" s="0"/>
       <c r="ALG76" s="0"/>
       <c r="ALH76" s="0"/>
@@ -12096,23 +12152,25 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="77" s="14">
       <c r="A77" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-      <c r="H77" s="0"/>
+      <c r="H77" s="0" t="s">
+        <v>308</v>
+      </c>
       <c r="I77" s="0"/>
       <c r="J77" s="0"/>
       <c r="K77" s="0"/>
@@ -12448,7 +12506,7 @@
       <c r="MC77" s="0"/>
       <c r="MD77" s="0"/>
       <c r="ME77" s="0"/>
-      <c r="MF77" s="0"/>
+      <c r="ALE77" s="0"/>
       <c r="ALF77" s="0"/>
       <c r="ALG77" s="0"/>
       <c r="ALH77" s="0"/>
@@ -12483,23 +12541,25 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="78" s="14">
       <c r="A78" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7" t="s">
-        <v>164</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="0"/>
+      <c r="H78" s="0" t="s">
+        <v>308</v>
+      </c>
       <c r="I78" s="0"/>
       <c r="J78" s="0"/>
       <c r="K78" s="0"/>
@@ -12835,7 +12895,7 @@
       <c r="MC78" s="0"/>
       <c r="MD78" s="0"/>
       <c r="ME78" s="0"/>
-      <c r="MF78" s="0"/>
+      <c r="ALE78" s="0"/>
       <c r="ALF78" s="0"/>
       <c r="ALG78" s="0"/>
       <c r="ALH78" s="0"/>
@@ -12868,25 +12928,27 @@
       <c r="AMI78" s="0"/>
       <c r="AMJ78" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="79" s="12">
-      <c r="A79" s="9" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="79" s="14">
+      <c r="A79" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="0"/>
+      <c r="B79" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="0" t="s">
+        <v>308</v>
+      </c>
       <c r="I79" s="0"/>
       <c r="J79" s="0"/>
       <c r="K79" s="0"/>
@@ -13222,7 +13284,7 @@
       <c r="MC79" s="0"/>
       <c r="MD79" s="0"/>
       <c r="ME79" s="0"/>
-      <c r="MF79" s="0"/>
+      <c r="ALE79" s="0"/>
       <c r="ALF79" s="0"/>
       <c r="ALG79" s="0"/>
       <c r="ALH79" s="0"/>
@@ -13257,21 +13319,21 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="80" s="12">
       <c r="A80" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F80" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="G80" s="9"/>
       <c r="H80" s="0"/>
       <c r="I80" s="0"/>
@@ -13609,7 +13671,7 @@
       <c r="MC80" s="0"/>
       <c r="MD80" s="0"/>
       <c r="ME80" s="0"/>
-      <c r="MF80" s="0"/>
+      <c r="ALE80" s="0"/>
       <c r="ALF80" s="0"/>
       <c r="ALG80" s="0"/>
       <c r="ALH80" s="0"/>
@@ -13644,19 +13706,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="81" s="12">
       <c r="A81" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -13996,7 +14058,7 @@
       <c r="MC81" s="0"/>
       <c r="MD81" s="0"/>
       <c r="ME81" s="0"/>
-      <c r="MF81" s="0"/>
+      <c r="ALE81" s="0"/>
       <c r="ALF81" s="0"/>
       <c r="ALG81" s="0"/>
       <c r="ALH81" s="0"/>
@@ -14031,19 +14093,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="82" s="12">
       <c r="A82" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>169</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>170</v>
+        <v>74</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -14383,7 +14445,7 @@
       <c r="MC82" s="0"/>
       <c r="MD82" s="0"/>
       <c r="ME82" s="0"/>
-      <c r="MF82" s="0"/>
+      <c r="ALE82" s="0"/>
       <c r="ALF82" s="0"/>
       <c r="ALG82" s="0"/>
       <c r="ALH82" s="0"/>
@@ -14418,19 +14480,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="83" s="12">
       <c r="A83" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C83" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -14770,7 +14832,7 @@
       <c r="MC83" s="0"/>
       <c r="MD83" s="0"/>
       <c r="ME83" s="0"/>
-      <c r="MF83" s="0"/>
+      <c r="ALE83" s="0"/>
       <c r="ALF83" s="0"/>
       <c r="ALG83" s="0"/>
       <c r="ALH83" s="0"/>
@@ -14805,21 +14867,21 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="84" s="12">
       <c r="A84" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C84" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D84" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9" t="s">
-        <v>174</v>
-      </c>
+      <c r="F84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="0"/>
       <c r="I84" s="0"/>
@@ -15157,7 +15219,7 @@
       <c r="MC84" s="0"/>
       <c r="MD84" s="0"/>
       <c r="ME84" s="0"/>
-      <c r="MF84" s="0"/>
+      <c r="ALE84" s="0"/>
       <c r="ALF84" s="0"/>
       <c r="ALG84" s="0"/>
       <c r="ALH84" s="0"/>
@@ -15190,24 +15252,24 @@
       <c r="AMI84" s="0"/>
       <c r="AMJ84" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="85" s="13">
-      <c r="A85" s="4" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="85" s="12">
+      <c r="A85" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G85" s="4"/>
+      <c r="B85" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G85" s="9"/>
       <c r="H85" s="0"/>
       <c r="I85" s="0"/>
       <c r="J85" s="0"/>
@@ -15544,7 +15606,7 @@
       <c r="MC85" s="0"/>
       <c r="MD85" s="0"/>
       <c r="ME85" s="0"/>
-      <c r="MF85" s="0"/>
+      <c r="ALE85" s="0"/>
       <c r="ALF85" s="0"/>
       <c r="ALG85" s="0"/>
       <c r="ALH85" s="0"/>
@@ -15579,21 +15641,21 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="86" s="13">
       <c r="A86" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F86" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G86" s="4"/>
       <c r="H86" s="0"/>
       <c r="I86" s="0"/>
@@ -15931,7 +15993,7 @@
       <c r="MC86" s="0"/>
       <c r="MD86" s="0"/>
       <c r="ME86" s="0"/>
-      <c r="MF86" s="0"/>
+      <c r="ALE86" s="0"/>
       <c r="ALF86" s="0"/>
       <c r="ALG86" s="0"/>
       <c r="ALH86" s="0"/>
@@ -15966,19 +16028,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="87" s="13">
       <c r="A87" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -16318,7 +16380,7 @@
       <c r="MC87" s="0"/>
       <c r="MD87" s="0"/>
       <c r="ME87" s="0"/>
-      <c r="MF87" s="0"/>
+      <c r="ALE87" s="0"/>
       <c r="ALF87" s="0"/>
       <c r="ALG87" s="0"/>
       <c r="ALH87" s="0"/>
@@ -16353,19 +16415,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="88" s="13">
       <c r="A88" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>176</v>
+        <v>74</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -16705,7 +16767,7 @@
       <c r="MC88" s="0"/>
       <c r="MD88" s="0"/>
       <c r="ME88" s="0"/>
-      <c r="MF88" s="0"/>
+      <c r="ALE88" s="0"/>
       <c r="ALF88" s="0"/>
       <c r="ALG88" s="0"/>
       <c r="ALH88" s="0"/>
@@ -16740,19 +16802,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="89" s="13">
       <c r="A89" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -17092,7 +17154,7 @@
       <c r="MC89" s="0"/>
       <c r="MD89" s="0"/>
       <c r="ME89" s="0"/>
-      <c r="MF89" s="0"/>
+      <c r="ALE89" s="0"/>
       <c r="ALF89" s="0"/>
       <c r="ALG89" s="0"/>
       <c r="ALH89" s="0"/>
@@ -17127,21 +17189,21 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="90" s="13">
       <c r="A90" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4" t="s">
-        <v>180</v>
-      </c>
+      <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="0"/>
       <c r="I90" s="0"/>
@@ -17479,7 +17541,7 @@
       <c r="MC90" s="0"/>
       <c r="MD90" s="0"/>
       <c r="ME90" s="0"/>
-      <c r="MF90" s="0"/>
+      <c r="ALE90" s="0"/>
       <c r="ALF90" s="0"/>
       <c r="ALG90" s="0"/>
       <c r="ALH90" s="0"/>
@@ -17512,550 +17574,918 @@
       <c r="AMI90" s="0"/>
       <c r="AMJ90" s="0"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="91">
-      <c r="A91" s="7" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="91" s="13">
+      <c r="A91" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G91" s="7"/>
+      <c r="B91" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="0"/>
+      <c r="I91" s="0"/>
+      <c r="J91" s="0"/>
+      <c r="K91" s="0"/>
+      <c r="L91" s="0"/>
+      <c r="M91" s="0"/>
+      <c r="N91" s="0"/>
+      <c r="O91" s="0"/>
+      <c r="P91" s="0"/>
+      <c r="Q91" s="0"/>
+      <c r="R91" s="0"/>
+      <c r="S91" s="0"/>
+      <c r="T91" s="0"/>
+      <c r="U91" s="0"/>
+      <c r="V91" s="0"/>
+      <c r="W91" s="0"/>
+      <c r="X91" s="0"/>
+      <c r="Y91" s="0"/>
+      <c r="Z91" s="0"/>
+      <c r="AA91" s="0"/>
+      <c r="AB91" s="0"/>
+      <c r="AC91" s="0"/>
+      <c r="AD91" s="0"/>
+      <c r="AE91" s="0"/>
+      <c r="AF91" s="0"/>
+      <c r="AG91" s="0"/>
+      <c r="AH91" s="0"/>
+      <c r="AI91" s="0"/>
+      <c r="AJ91" s="0"/>
+      <c r="AK91" s="0"/>
+      <c r="AL91" s="0"/>
+      <c r="AM91" s="0"/>
+      <c r="AN91" s="0"/>
+      <c r="AO91" s="0"/>
+      <c r="AP91" s="0"/>
+      <c r="AQ91" s="0"/>
+      <c r="AR91" s="0"/>
+      <c r="AS91" s="0"/>
+      <c r="AT91" s="0"/>
+      <c r="AU91" s="0"/>
+      <c r="AV91" s="0"/>
+      <c r="AW91" s="0"/>
+      <c r="AX91" s="0"/>
+      <c r="AY91" s="0"/>
+      <c r="AZ91" s="0"/>
+      <c r="BA91" s="0"/>
+      <c r="BB91" s="0"/>
+      <c r="BC91" s="0"/>
+      <c r="BD91" s="0"/>
+      <c r="BE91" s="0"/>
+      <c r="BF91" s="0"/>
+      <c r="BG91" s="0"/>
+      <c r="BH91" s="0"/>
+      <c r="BI91" s="0"/>
+      <c r="BJ91" s="0"/>
+      <c r="BK91" s="0"/>
+      <c r="BL91" s="0"/>
+      <c r="BM91" s="0"/>
+      <c r="BN91" s="0"/>
+      <c r="BO91" s="0"/>
+      <c r="BP91" s="0"/>
+      <c r="BQ91" s="0"/>
+      <c r="BR91" s="0"/>
+      <c r="BS91" s="0"/>
+      <c r="BT91" s="0"/>
+      <c r="BU91" s="0"/>
+      <c r="BV91" s="0"/>
+      <c r="BW91" s="0"/>
+      <c r="BX91" s="0"/>
+      <c r="BY91" s="0"/>
+      <c r="BZ91" s="0"/>
+      <c r="CA91" s="0"/>
+      <c r="CB91" s="0"/>
+      <c r="CC91" s="0"/>
+      <c r="CD91" s="0"/>
+      <c r="CE91" s="0"/>
+      <c r="CF91" s="0"/>
+      <c r="CG91" s="0"/>
+      <c r="CH91" s="0"/>
+      <c r="CI91" s="0"/>
+      <c r="CJ91" s="0"/>
+      <c r="CK91" s="0"/>
+      <c r="CL91" s="0"/>
+      <c r="CM91" s="0"/>
+      <c r="CN91" s="0"/>
+      <c r="CO91" s="0"/>
+      <c r="CP91" s="0"/>
+      <c r="CQ91" s="0"/>
+      <c r="CR91" s="0"/>
+      <c r="CS91" s="0"/>
+      <c r="CT91" s="0"/>
+      <c r="CU91" s="0"/>
+      <c r="CV91" s="0"/>
+      <c r="CW91" s="0"/>
+      <c r="CX91" s="0"/>
+      <c r="CY91" s="0"/>
+      <c r="CZ91" s="0"/>
+      <c r="DA91" s="0"/>
+      <c r="DB91" s="0"/>
+      <c r="DC91" s="0"/>
+      <c r="DD91" s="0"/>
+      <c r="DE91" s="0"/>
+      <c r="DF91" s="0"/>
+      <c r="DG91" s="0"/>
+      <c r="DH91" s="0"/>
+      <c r="DI91" s="0"/>
+      <c r="DJ91" s="0"/>
+      <c r="DK91" s="0"/>
+      <c r="DL91" s="0"/>
+      <c r="DM91" s="0"/>
+      <c r="DN91" s="0"/>
+      <c r="DO91" s="0"/>
+      <c r="DP91" s="0"/>
+      <c r="DQ91" s="0"/>
+      <c r="DR91" s="0"/>
+      <c r="DS91" s="0"/>
+      <c r="DT91" s="0"/>
+      <c r="DU91" s="0"/>
+      <c r="DV91" s="0"/>
+      <c r="DW91" s="0"/>
+      <c r="DX91" s="0"/>
+      <c r="DY91" s="0"/>
+      <c r="DZ91" s="0"/>
+      <c r="EA91" s="0"/>
+      <c r="EB91" s="0"/>
+      <c r="EC91" s="0"/>
+      <c r="ED91" s="0"/>
+      <c r="EE91" s="0"/>
+      <c r="EF91" s="0"/>
+      <c r="EG91" s="0"/>
+      <c r="EH91" s="0"/>
+      <c r="EI91" s="0"/>
+      <c r="EJ91" s="0"/>
+      <c r="EK91" s="0"/>
+      <c r="EL91" s="0"/>
+      <c r="EM91" s="0"/>
+      <c r="EN91" s="0"/>
+      <c r="EO91" s="0"/>
+      <c r="EP91" s="0"/>
+      <c r="EQ91" s="0"/>
+      <c r="ER91" s="0"/>
+      <c r="ES91" s="0"/>
+      <c r="ET91" s="0"/>
+      <c r="EU91" s="0"/>
+      <c r="EV91" s="0"/>
+      <c r="EW91" s="0"/>
+      <c r="EX91" s="0"/>
+      <c r="EY91" s="0"/>
+      <c r="EZ91" s="0"/>
+      <c r="FA91" s="0"/>
+      <c r="FB91" s="0"/>
+      <c r="FC91" s="0"/>
+      <c r="FD91" s="0"/>
+      <c r="FE91" s="0"/>
+      <c r="FF91" s="0"/>
+      <c r="FG91" s="0"/>
+      <c r="FH91" s="0"/>
+      <c r="FI91" s="0"/>
+      <c r="FJ91" s="0"/>
+      <c r="FK91" s="0"/>
+      <c r="FL91" s="0"/>
+      <c r="FM91" s="0"/>
+      <c r="FN91" s="0"/>
+      <c r="FO91" s="0"/>
+      <c r="FP91" s="0"/>
+      <c r="FQ91" s="0"/>
+      <c r="FR91" s="0"/>
+      <c r="FS91" s="0"/>
+      <c r="FT91" s="0"/>
+      <c r="FU91" s="0"/>
+      <c r="FV91" s="0"/>
+      <c r="FW91" s="0"/>
+      <c r="FX91" s="0"/>
+      <c r="FY91" s="0"/>
+      <c r="FZ91" s="0"/>
+      <c r="GA91" s="0"/>
+      <c r="GB91" s="0"/>
+      <c r="GC91" s="0"/>
+      <c r="GD91" s="0"/>
+      <c r="GE91" s="0"/>
+      <c r="GF91" s="0"/>
+      <c r="GG91" s="0"/>
+      <c r="GH91" s="0"/>
+      <c r="GI91" s="0"/>
+      <c r="GJ91" s="0"/>
+      <c r="GK91" s="0"/>
+      <c r="GL91" s="0"/>
+      <c r="GM91" s="0"/>
+      <c r="GN91" s="0"/>
+      <c r="GO91" s="0"/>
+      <c r="GP91" s="0"/>
+      <c r="GQ91" s="0"/>
+      <c r="GR91" s="0"/>
+      <c r="GS91" s="0"/>
+      <c r="GT91" s="0"/>
+      <c r="GU91" s="0"/>
+      <c r="GV91" s="0"/>
+      <c r="GW91" s="0"/>
+      <c r="GX91" s="0"/>
+      <c r="GY91" s="0"/>
+      <c r="GZ91" s="0"/>
+      <c r="HA91" s="0"/>
+      <c r="HB91" s="0"/>
+      <c r="HC91" s="0"/>
+      <c r="HD91" s="0"/>
+      <c r="HE91" s="0"/>
+      <c r="HF91" s="0"/>
+      <c r="HG91" s="0"/>
+      <c r="HH91" s="0"/>
+      <c r="HI91" s="0"/>
+      <c r="HJ91" s="0"/>
+      <c r="HK91" s="0"/>
+      <c r="HL91" s="0"/>
+      <c r="HM91" s="0"/>
+      <c r="HN91" s="0"/>
+      <c r="HO91" s="0"/>
+      <c r="HP91" s="0"/>
+      <c r="HQ91" s="0"/>
+      <c r="HR91" s="0"/>
+      <c r="HS91" s="0"/>
+      <c r="HT91" s="0"/>
+      <c r="HU91" s="0"/>
+      <c r="HV91" s="0"/>
+      <c r="HW91" s="0"/>
+      <c r="HX91" s="0"/>
+      <c r="HY91" s="0"/>
+      <c r="HZ91" s="0"/>
+      <c r="IA91" s="0"/>
+      <c r="IB91" s="0"/>
+      <c r="IC91" s="0"/>
+      <c r="ID91" s="0"/>
+      <c r="IE91" s="0"/>
+      <c r="IF91" s="0"/>
+      <c r="IG91" s="0"/>
+      <c r="IH91" s="0"/>
+      <c r="II91" s="0"/>
+      <c r="IJ91" s="0"/>
+      <c r="IK91" s="0"/>
+      <c r="IL91" s="0"/>
+      <c r="IM91" s="0"/>
+      <c r="IN91" s="0"/>
+      <c r="IO91" s="0"/>
+      <c r="IP91" s="0"/>
+      <c r="IQ91" s="0"/>
+      <c r="IR91" s="0"/>
+      <c r="IS91" s="0"/>
+      <c r="IT91" s="0"/>
+      <c r="IU91" s="0"/>
+      <c r="IV91" s="0"/>
+      <c r="IW91" s="0"/>
+      <c r="IX91" s="0"/>
+      <c r="IY91" s="0"/>
+      <c r="IZ91" s="0"/>
+      <c r="JA91" s="0"/>
+      <c r="JB91" s="0"/>
+      <c r="JC91" s="0"/>
+      <c r="JD91" s="0"/>
+      <c r="JE91" s="0"/>
+      <c r="JF91" s="0"/>
+      <c r="JG91" s="0"/>
+      <c r="JH91" s="0"/>
+      <c r="JI91" s="0"/>
+      <c r="JJ91" s="0"/>
+      <c r="JK91" s="0"/>
+      <c r="JL91" s="0"/>
+      <c r="JM91" s="0"/>
+      <c r="JN91" s="0"/>
+      <c r="JO91" s="0"/>
+      <c r="JP91" s="0"/>
+      <c r="JQ91" s="0"/>
+      <c r="JR91" s="0"/>
+      <c r="JS91" s="0"/>
+      <c r="JT91" s="0"/>
+      <c r="JU91" s="0"/>
+      <c r="JV91" s="0"/>
+      <c r="JW91" s="0"/>
+      <c r="JX91" s="0"/>
+      <c r="JY91" s="0"/>
+      <c r="JZ91" s="0"/>
+      <c r="KA91" s="0"/>
+      <c r="KB91" s="0"/>
+      <c r="KC91" s="0"/>
+      <c r="KD91" s="0"/>
+      <c r="KE91" s="0"/>
+      <c r="KF91" s="0"/>
+      <c r="KG91" s="0"/>
+      <c r="KH91" s="0"/>
+      <c r="KI91" s="0"/>
+      <c r="KJ91" s="0"/>
+      <c r="KK91" s="0"/>
+      <c r="KL91" s="0"/>
+      <c r="KM91" s="0"/>
+      <c r="KN91" s="0"/>
+      <c r="KO91" s="0"/>
+      <c r="KP91" s="0"/>
+      <c r="KQ91" s="0"/>
+      <c r="KR91" s="0"/>
+      <c r="KS91" s="0"/>
+      <c r="KT91" s="0"/>
+      <c r="KU91" s="0"/>
+      <c r="KV91" s="0"/>
+      <c r="KW91" s="0"/>
+      <c r="KX91" s="0"/>
+      <c r="KY91" s="0"/>
+      <c r="KZ91" s="0"/>
+      <c r="LA91" s="0"/>
+      <c r="LB91" s="0"/>
+      <c r="LC91" s="0"/>
+      <c r="LD91" s="0"/>
+      <c r="LE91" s="0"/>
+      <c r="LF91" s="0"/>
+      <c r="LG91" s="0"/>
+      <c r="LH91" s="0"/>
+      <c r="LI91" s="0"/>
+      <c r="LJ91" s="0"/>
+      <c r="LK91" s="0"/>
+      <c r="LL91" s="0"/>
+      <c r="LM91" s="0"/>
+      <c r="LN91" s="0"/>
+      <c r="LO91" s="0"/>
+      <c r="LP91" s="0"/>
+      <c r="LQ91" s="0"/>
+      <c r="LR91" s="0"/>
+      <c r="LS91" s="0"/>
+      <c r="LT91" s="0"/>
+      <c r="LU91" s="0"/>
+      <c r="LV91" s="0"/>
+      <c r="LW91" s="0"/>
+      <c r="LX91" s="0"/>
+      <c r="LY91" s="0"/>
+      <c r="LZ91" s="0"/>
+      <c r="MA91" s="0"/>
+      <c r="MB91" s="0"/>
+      <c r="MC91" s="0"/>
+      <c r="MD91" s="0"/>
+      <c r="ME91" s="0"/>
+      <c r="ALE91" s="0"/>
+      <c r="ALF91" s="0"/>
+      <c r="ALG91" s="0"/>
+      <c r="ALH91" s="0"/>
+      <c r="ALI91" s="0"/>
+      <c r="ALJ91" s="0"/>
+      <c r="ALK91" s="0"/>
+      <c r="ALL91" s="0"/>
+      <c r="ALM91" s="0"/>
+      <c r="ALN91" s="0"/>
+      <c r="ALO91" s="0"/>
+      <c r="ALP91" s="0"/>
+      <c r="ALQ91" s="0"/>
+      <c r="ALR91" s="0"/>
+      <c r="ALS91" s="0"/>
+      <c r="ALT91" s="0"/>
+      <c r="ALU91" s="0"/>
+      <c r="ALV91" s="0"/>
+      <c r="ALW91" s="0"/>
+      <c r="ALX91" s="0"/>
+      <c r="ALY91" s="0"/>
+      <c r="ALZ91" s="0"/>
+      <c r="AMA91" s="0"/>
+      <c r="AMB91" s="0"/>
+      <c r="AMC91" s="0"/>
+      <c r="AMD91" s="0"/>
+      <c r="AME91" s="0"/>
+      <c r="AMF91" s="0"/>
+      <c r="AMG91" s="0"/>
+      <c r="AMH91" s="0"/>
+      <c r="AMI91" s="0"/>
+      <c r="AMJ91" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="92">
       <c r="A92" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F92" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="G92" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="93">
       <c r="A93" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="94">
       <c r="A94" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>182</v>
+        <v>74</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="95">
       <c r="A95" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C95" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E95" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="96">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="96">
       <c r="A96" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C96" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="97">
+      <c r="A97" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G96" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="97">
-      <c r="A97" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G97" s="4"/>
+      <c r="D97" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G97" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="98">
       <c r="A98" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F98" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G98" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="99">
       <c r="A99" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="100">
       <c r="A100" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>188</v>
+        <v>74</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="101">
       <c r="A101" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="102">
       <c r="A102" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="103">
+      <c r="A103" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G102" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="103">
-      <c r="A103" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G103" s="7"/>
+      <c r="D103" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G103" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="104">
       <c r="A104" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F104" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="G104" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="105">
       <c r="A105" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="106">
       <c r="A106" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>194</v>
+        <v>74</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="107">
       <c r="A107" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C107" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E107" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="108">
       <c r="A108" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C108" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E108" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="109">
+      <c r="A109" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C109" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G108" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="109">
-      <c r="A109" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G109" s="9"/>
+      <c r="D109" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G109" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="110">
       <c r="A110" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F110" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="G110" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="111">
       <c r="A111" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C111" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="112">
       <c r="A112" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>201</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="113">
       <c r="A113" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C113" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E113" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>204</v>
       </c>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="114">
       <c r="A114" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C114" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E114" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D114" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9" t="s">
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="115">
+      <c r="A115" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C115" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G114" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="115">
-      <c r="A115" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G115" s="4"/>
+      <c r="D115" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G115" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="116">
       <c r="A116" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F116" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G116" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="117">
       <c r="A117" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C117" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E117" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="118">
       <c r="A118" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="119">
       <c r="A119" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>209</v>
@@ -18065,573 +18495,592 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="120">
       <c r="A120" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E120" s="4" t="s">
         <v>210</v>
       </c>
+      <c r="F120" s="4"/>
       <c r="G120" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="121">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G121" s="7"/>
+      <c r="B121" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G121" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="122">
       <c r="A122" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F122" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="G122" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="123">
       <c r="A123" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C123" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E123" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="124">
       <c r="A124" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>213</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="125">
       <c r="A125" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C125" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E125" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="126">
       <c r="A126" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C126" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E126" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D126" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7" t="s">
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="127">
+      <c r="A127" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C127" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G126" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="127">
-      <c r="A127" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G127" s="9"/>
+      <c r="D127" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G127" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="128">
       <c r="A128" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F128" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="G128" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="129">
       <c r="A129" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C129" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E129" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="130">
       <c r="A130" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="131">
       <c r="A131" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C131" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E131" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>222</v>
       </c>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="132">
       <c r="A132" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C132" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E132" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D132" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9" t="s">
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="133">
+      <c r="A133" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C133" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="G132" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="133">
-      <c r="A133" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G133" s="4"/>
+      <c r="D133" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G133" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="134">
       <c r="A134" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F134" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G134" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="135">
       <c r="A135" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C135" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E135" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="136">
       <c r="A136" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="137">
       <c r="A137" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C137" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E137" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="138">
       <c r="A138" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C138" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E138" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D138" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4" t="s">
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="139">
+      <c r="A139" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G138" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="139">
-      <c r="A139" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G139" s="9"/>
+      <c r="D139" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G139" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="140">
       <c r="A140" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F140" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="G140" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="141">
       <c r="A141" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="142">
       <c r="A142" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C142" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E142" s="9" t="s">
         <v>233</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="143">
       <c r="A143" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C143" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E143" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D143" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9" t="s">
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="144">
+      <c r="A144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C144" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G143" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="144">
-      <c r="A144" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G144" s="7"/>
+      <c r="D144" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G144" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="145">
       <c r="A145" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F145" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="G145" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="146">
       <c r="A146" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C146" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E146" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="147">
       <c r="A147" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C147" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E147" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="148">
       <c r="A148" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C148" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E148" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D148" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7" t="s">
-        <v>243</v>
-      </c>
+      <c r="F148" s="7"/>
       <c r="G148" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="149">
       <c r="A149" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>245</v>
+        <v>48</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G149" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="150">
+      <c r="A150" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G150" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18652,19 +19101,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A12" activeCellId="1" pane="topLeft" sqref="D149 A12"/>
+      <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="27.2857142857143" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="18.6836734693878" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -18672,7 +19121,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -18697,19 +19146,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="D149 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="27.6887755102041" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="20.1581632653061" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -18717,7 +19166,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -18742,18 +19191,18 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A12" activeCellId="1" pane="topLeft" sqref="D149 A12"/>
+      <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.0561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="24.0561224489796" collapsed="true"/>
+    <col min="2" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -18761,7 +19210,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -18786,18 +19235,18 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A12" activeCellId="1" pane="topLeft" sqref="D149 A12"/>
+      <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="21.6326530612245" collapsed="true"/>
+    <col min="2" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -18805,7 +19254,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -18830,19 +19279,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="D149 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.9438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="34.9438775510204" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="16.8010204081633" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -18850,7 +19299,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -18875,19 +19324,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C44" activeCellId="1" pane="topLeft" sqref="D149 C44"/>
+      <selection activeCell="C44" activeCellId="0" pane="topLeft" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.8979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="28.8979591836735" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="20.8316326530612" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -18895,7 +19344,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -18920,19 +19369,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="1" pane="topLeft" sqref="D149 A4"/>
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="34.2704081632653" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="21.1020408163265" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -18940,7 +19389,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -18965,19 +19414,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="D149 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.0255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="36.0255102040816" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="23.7857142857143" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -18985,7 +19434,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19010,19 +19459,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="D149 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="32.5255102040816" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="20.8316326530612" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19030,7 +19479,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19055,18 +19504,18 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B15" activeCellId="1" pane="topLeft" sqref="D149 B15"/>
+      <selection activeCell="B15" activeCellId="0" pane="topLeft" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="16.530612244898" collapsed="true"/>
+    <col min="2" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19074,7 +19523,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19099,30 +19548,30 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D7" activeCellId="1" pane="topLeft" sqref="D149 D7"/>
+      <selection activeCell="D7" activeCellId="0" pane="topLeft" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="27.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.6734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="27.5765306122449" collapsed="true"/>
+    <col min="2" max="3" hidden="false" style="0" width="27.2857142857143" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="27.5765306122449" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="18.5765306122449" collapsed="true"/>
+    <col min="6" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -19130,16 +19579,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -19164,19 +19613,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="D149 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="32.7959183673469" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="21.9030612244898" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19184,7 +19633,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19209,19 +19658,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="D149 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.6734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="27.7091836734694" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="18.1428571428571" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19229,7 +19678,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19254,19 +19703,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="D149 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.6734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="27.8520408163265" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="17.8571428571429" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19274,7 +19723,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19299,19 +19748,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A39" activeCellId="1" pane="topLeft" sqref="D149 A39"/>
+      <selection activeCell="A39" activeCellId="0" pane="topLeft" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.6734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="27.8520408163265" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="18.4234693877551" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19319,7 +19768,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19344,19 +19793,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="D149 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.6734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="27.1428571428571" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="18.2857142857143" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19364,7 +19813,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19389,19 +19838,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="1" pane="topLeft" sqref="D149 A4"/>
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.6734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="27.8520408163265" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="19.0" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19409,7 +19858,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -19434,19 +19883,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="L40" activeCellId="1" pane="topLeft" sqref="D149 L40"/>
+      <selection activeCell="L40" activeCellId="0" pane="topLeft" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.6734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="27.1428571428571" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="18.0" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -19454,7 +19903,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
